--- a/datasheets/compare/compare_algs_S-N3.xlsx
+++ b/datasheets/compare/compare_algs_S-N3.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
         <v>10</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>17</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
         <v>11</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
         <v>2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -1225,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
+        <v>13</v>
+      </c>
+      <c r="C77" t="n">
         <v>9</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>11</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C91" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C94" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-N3.xlsx
+++ b/datasheets/compare/compare_algs_S-N3.xlsx
@@ -452,35 +452,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -488,37 +488,37 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -543,43 +543,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -587,43 +587,43 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -631,32 +631,32 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
         <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -686,21 +686,21 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -719,32 +719,32 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B27" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -774,21 +774,21 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -796,21 +796,21 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -829,54 +829,54 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -906,21 +906,21 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -950,32 +950,32 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
+        <v>23</v>
+      </c>
+      <c r="C49" t="n">
         <v>11</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -983,43 +983,43 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1027,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1060,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
@@ -1090,24 +1090,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -1115,54 +1115,54 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
+        <v>22</v>
+      </c>
+      <c r="C67" t="n">
         <v>4</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1203,29 +1203,29 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1236,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -1247,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
         <v>10</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -1280,32 +1280,32 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
         <v>3</v>
-      </c>
-      <c r="C78" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -1324,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -1346,29 +1346,29 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C85" t="n">
         <v>3</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
@@ -1390,32 +1390,32 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -1423,54 +1423,54 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="B91" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B94" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -1478,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" t="n">
         <v>19</v>
-      </c>
-      <c r="C96" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -1500,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
@@ -1533,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B101" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
